--- a/src/assets/documents/preguntaObjetivasModerado.xlsx
+++ b/src/assets/documents/preguntaObjetivasModerado.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sullc\Documents\TPI\Workspace\TPIntegrador\Angular\TPI-Front\src\assets\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73489025-B508-45C3-B60E-3AC943EFD7A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2858088D-66FB-4B8F-B19A-6B322F81985E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11760" xr2:uid="{EA040AEE-35B0-4F5B-AEF3-29BB44B005B2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11760" activeTab="3" xr2:uid="{EA040AEE-35B0-4F5B-AEF3-29BB44B005B2}"/>
   </bookViews>
   <sheets>
     <sheet name="categoria" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="46">
   <si>
     <t>nombre</t>
   </si>
@@ -95,9 +95,6 @@
     <t>""</t>
   </si>
   <si>
-    <t>  }</t>
-  </si>
-  <si>
     <t>Nivel De Conocimiento</t>
   </si>
   <si>
@@ -126,9 +123,6 @@
   </si>
   <si>
     <t>¿Cómo afecta la inflación a las inversiones y cómo puede un inversor moderado proteger su cartera contra la erosión del poder adquisitivo?</t>
-  </si>
-  <si>
-    <t>,</t>
   </si>
   <si>
     <t>A- El ratio de Sharpe mide la rentabilidad absoluta de una inversión.</t>
@@ -189,7 +183,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -237,12 +231,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Calibri Light"/>
       <family val="2"/>
       <scheme val="major"/>
@@ -268,7 +256,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -280,9 +268,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -601,8 +588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D67F1D32-4EEB-430C-A9B4-3504E8B95258}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -629,10 +616,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -643,10 +630,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0B5289D-8738-4DA2-AC29-B8179EB99313}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A3" sqref="A3:XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -654,7 +641,7 @@
     <col min="2" max="2" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -665,19 +652,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E6" s="1"/>
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -688,10 +669,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E557A189-07BD-4DD4-AE4E-E2A608F405F0}">
-  <dimension ref="A1:L34"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A8" sqref="A8:XFD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -702,7 +683,7 @@
     <col min="5" max="5" width="33.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -722,317 +703,126 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
         <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
         <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
         <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>27</v>
+      <c r="B6" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="C6" t="s">
         <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
         <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="1"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>29</v>
-      </c>
-      <c r="G12" s="4"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="1"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G14" s="4"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G15" s="4"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G16" s="4"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-    </row>
-    <row r="17" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G17" s="4"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-    </row>
-    <row r="18" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G18" s="4"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-    </row>
-    <row r="19" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G19" s="4"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-    </row>
-    <row r="20" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G20" s="4"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-    </row>
-    <row r="21" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G21" s="4"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-    </row>
-    <row r="22" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G22" s="4"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-    </row>
-    <row r="23" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G23" s="4"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-    </row>
-    <row r="24" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G24" s="4"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-    </row>
-    <row r="25" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G25" s="4"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-    </row>
-    <row r="26" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G26" s="4"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-    </row>
-    <row r="27" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G27" s="4"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
-    </row>
-    <row r="28" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G28" s="4"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
-    </row>
-    <row r="29" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G29" s="4"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
-    </row>
-    <row r="30" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G30" s="4"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="5"/>
-    </row>
-    <row r="31" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G31" s="4"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="5"/>
-    </row>
-    <row r="32" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G32" s="4"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
-      <c r="L32" s="5"/>
-    </row>
-    <row r="33" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G33" s="4"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
-      <c r="L33" s="5"/>
-    </row>
-    <row r="34" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G34" s="2" t="s">
-        <v>18</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1042,10 +832,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8759312-058C-4473-8FFB-A755D6FBD3C0}">
-  <dimension ref="A1:L125"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:XFD117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1084,7 +874,7 @@
         <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1093,7 +883,7 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I2" s="2"/>
       <c r="L2" s="4"/>
@@ -1106,7 +896,7 @@
         <v>17</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D3">
         <v>5</v>
@@ -1115,7 +905,7 @@
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I3" s="2"/>
       <c r="L3" s="4"/>
@@ -1128,7 +918,7 @@
         <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -1137,7 +927,7 @@
         <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I4" s="2"/>
       <c r="L4" s="4"/>
@@ -1150,7 +940,7 @@
         <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -1159,7 +949,7 @@
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I5" s="2"/>
       <c r="L5" s="4"/>
@@ -1172,7 +962,7 @@
         <v>17</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1181,7 +971,7 @@
         <v>2</v>
       </c>
       <c r="F6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I6" s="2"/>
       <c r="L6" s="4"/>
@@ -1194,7 +984,7 @@
         <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D7">
         <v>5</v>
@@ -1203,7 +993,7 @@
         <v>3</v>
       </c>
       <c r="F7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I7" s="2"/>
       <c r="L7" s="2"/>
@@ -1216,7 +1006,7 @@
         <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1225,7 +1015,7 @@
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I8" s="2"/>
       <c r="L8" s="2"/>
@@ -1238,7 +1028,7 @@
         <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1247,7 +1037,7 @@
         <v>2</v>
       </c>
       <c r="F9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I9" s="2"/>
       <c r="L9" s="2"/>
@@ -1260,7 +1050,7 @@
         <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D10">
         <v>5</v>
@@ -1269,7 +1059,7 @@
         <v>3</v>
       </c>
       <c r="F10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I10" s="2"/>
       <c r="L10" s="2"/>
@@ -1282,7 +1072,7 @@
         <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1291,7 +1081,7 @@
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I11" s="2"/>
       <c r="L11" s="2"/>
@@ -1304,7 +1094,7 @@
         <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -1313,7 +1103,7 @@
         <v>2</v>
       </c>
       <c r="F12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I12" s="2"/>
       <c r="L12" s="2"/>
@@ -1326,7 +1116,7 @@
         <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D13">
         <v>10</v>
@@ -1335,7 +1125,7 @@
         <v>3</v>
       </c>
       <c r="F13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I13" s="2"/>
       <c r="L13" s="2"/>
@@ -1348,7 +1138,7 @@
         <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -1357,7 +1147,7 @@
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I14" s="2"/>
       <c r="L14" s="2"/>
@@ -1370,7 +1160,7 @@
         <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D15">
         <v>10</v>
@@ -1379,7 +1169,7 @@
         <v>2</v>
       </c>
       <c r="F15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L15" s="2"/>
     </row>
@@ -1391,7 +1181,7 @@
         <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -1400,7 +1190,7 @@
         <v>3</v>
       </c>
       <c r="F16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I16" s="2"/>
       <c r="L16" s="2"/>
@@ -1413,7 +1203,7 @@
         <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -1422,7 +1212,7 @@
         <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I17" s="2"/>
       <c r="L17" s="2"/>
@@ -1434,8 +1224,8 @@
       <c r="B18" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="7" t="s">
-        <v>46</v>
+      <c r="C18" s="6" t="s">
+        <v>44</v>
       </c>
       <c r="D18">
         <v>5</v>
@@ -1444,7 +1234,7 @@
         <v>2</v>
       </c>
       <c r="F18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I18" s="2"/>
       <c r="L18" s="2"/>
@@ -1457,7 +1247,7 @@
         <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -1466,355 +1256,10 @@
         <v>3</v>
       </c>
       <c r="F19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I19" s="2"/>
       <c r="L19" s="2"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F20" s="3"/>
-      <c r="L20" s="2"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F21" s="3"/>
-      <c r="I21" s="2"/>
-      <c r="L21" s="2"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C22" s="2"/>
-      <c r="I22" s="2"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C23" s="2"/>
-      <c r="I23" s="2"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C24" s="2"/>
-      <c r="I24" s="2"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C25" s="2"/>
-      <c r="I25" s="2"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C26" s="2"/>
-      <c r="I26" s="2"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C27" s="2"/>
-      <c r="I27" s="2"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C28" s="2"/>
-      <c r="I28" s="2"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C29" s="2"/>
-      <c r="I29" s="2"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C30" s="2"/>
-      <c r="I30" s="2"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C31" s="2"/>
-      <c r="I31" s="2"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C32" s="2"/>
-      <c r="I32" s="2"/>
-    </row>
-    <row r="33" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C33" s="2"/>
-      <c r="I33" s="2"/>
-    </row>
-    <row r="34" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C34" s="2"/>
-      <c r="I34" s="2"/>
-    </row>
-    <row r="35" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C35" s="2"/>
-      <c r="I35" s="2"/>
-    </row>
-    <row r="36" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C36" s="2"/>
-      <c r="I36" s="2"/>
-    </row>
-    <row r="37" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C37" s="2"/>
-      <c r="I37" s="2"/>
-    </row>
-    <row r="38" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C38" s="2"/>
-      <c r="I38" s="2"/>
-    </row>
-    <row r="39" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C39" s="2"/>
-      <c r="I39" s="2"/>
-    </row>
-    <row r="40" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C40" s="2"/>
-      <c r="I40" s="2"/>
-    </row>
-    <row r="41" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C41" s="2"/>
-      <c r="I41" s="2"/>
-    </row>
-    <row r="42" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C42" s="2"/>
-      <c r="I42" s="2"/>
-    </row>
-    <row r="43" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C43" s="2"/>
-      <c r="I43" s="2"/>
-    </row>
-    <row r="44" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C44" s="2"/>
-      <c r="I44" s="2"/>
-    </row>
-    <row r="45" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C45" s="2"/>
-      <c r="I45" s="2"/>
-    </row>
-    <row r="46" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="I46" s="2"/>
-    </row>
-    <row r="47" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="I47" s="2"/>
-    </row>
-    <row r="48" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="I48" s="2"/>
-    </row>
-    <row r="49" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I49" s="2"/>
-    </row>
-    <row r="50" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I50" s="2"/>
-    </row>
-    <row r="51" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I51" s="2"/>
-    </row>
-    <row r="52" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I52" s="2"/>
-    </row>
-    <row r="53" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I53" s="2"/>
-    </row>
-    <row r="54" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I54" s="2"/>
-    </row>
-    <row r="55" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I55" s="2"/>
-    </row>
-    <row r="56" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I56" s="2"/>
-    </row>
-    <row r="57" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I57" s="2"/>
-    </row>
-    <row r="58" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I58" s="2"/>
-    </row>
-    <row r="59" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I59" s="2"/>
-    </row>
-    <row r="60" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I60" s="2"/>
-    </row>
-    <row r="61" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I61" s="2"/>
-    </row>
-    <row r="62" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I62" s="2"/>
-    </row>
-    <row r="63" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I63" s="2"/>
-    </row>
-    <row r="64" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I64" s="2"/>
-    </row>
-    <row r="65" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I65" s="2"/>
-    </row>
-    <row r="66" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I66" s="2"/>
-    </row>
-    <row r="67" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I67" s="2"/>
-    </row>
-    <row r="68" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I68" s="2"/>
-    </row>
-    <row r="69" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I69" s="2"/>
-    </row>
-    <row r="70" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I70" s="2"/>
-    </row>
-    <row r="71" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I71" s="2"/>
-    </row>
-    <row r="72" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I72" s="2"/>
-    </row>
-    <row r="73" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I73" s="2"/>
-    </row>
-    <row r="74" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I74" s="2"/>
-    </row>
-    <row r="75" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I75" s="2"/>
-    </row>
-    <row r="76" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I76" s="2"/>
-    </row>
-    <row r="77" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I77" s="2"/>
-    </row>
-    <row r="78" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I78" s="2"/>
-    </row>
-    <row r="79" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I79" s="2"/>
-    </row>
-    <row r="80" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I80" s="2"/>
-    </row>
-    <row r="81" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I81" s="2"/>
-    </row>
-    <row r="82" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I82" s="2"/>
-    </row>
-    <row r="83" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I83" s="2"/>
-    </row>
-    <row r="84" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I84" s="2"/>
-    </row>
-    <row r="85" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I85" s="2"/>
-    </row>
-    <row r="86" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I86" s="2"/>
-    </row>
-    <row r="87" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I87" s="2"/>
-    </row>
-    <row r="88" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I88" s="2"/>
-    </row>
-    <row r="89" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I89" s="2"/>
-    </row>
-    <row r="90" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I90" s="2"/>
-    </row>
-    <row r="91" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I91" s="2"/>
-    </row>
-    <row r="92" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I92" s="2"/>
-    </row>
-    <row r="93" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I93" s="2"/>
-    </row>
-    <row r="94" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I94" s="2"/>
-    </row>
-    <row r="95" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I95" s="2"/>
-    </row>
-    <row r="96" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I96" s="2"/>
-    </row>
-    <row r="97" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I97" s="2"/>
-    </row>
-    <row r="98" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I98" s="2"/>
-    </row>
-    <row r="99" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I99" s="2"/>
-    </row>
-    <row r="100" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I100" s="2"/>
-    </row>
-    <row r="101" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I101" s="2"/>
-    </row>
-    <row r="102" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I102" s="2"/>
-    </row>
-    <row r="103" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I103" s="2"/>
-    </row>
-    <row r="104" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I104" s="2"/>
-    </row>
-    <row r="105" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I105" s="2"/>
-    </row>
-    <row r="106" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I106" s="2"/>
-    </row>
-    <row r="107" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I107" s="2"/>
-    </row>
-    <row r="108" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I108" s="2"/>
-    </row>
-    <row r="109" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I109" s="2"/>
-    </row>
-    <row r="110" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I110" s="2"/>
-    </row>
-    <row r="111" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I111" s="2"/>
-    </row>
-    <row r="112" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I112" s="2"/>
-    </row>
-    <row r="113" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I113" s="2"/>
-    </row>
-    <row r="114" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I114" s="2"/>
-    </row>
-    <row r="115" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I115" s="2"/>
-    </row>
-    <row r="116" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I116" s="2"/>
-    </row>
-    <row r="117" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I117" s="2"/>
-    </row>
-    <row r="118" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I118" s="2"/>
-    </row>
-    <row r="119" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I119" s="2"/>
-    </row>
-    <row r="120" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I120" s="2"/>
-    </row>
-    <row r="121" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I121" s="2"/>
-    </row>
-    <row r="122" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I122" s="2"/>
-    </row>
-    <row r="123" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I123" s="2"/>
-    </row>
-    <row r="124" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I124" s="2"/>
-    </row>
-    <row r="125" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I125" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1823,6 +1268,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="87ddcb0d-d42d-44d1-b07a-22e3752ef0c9" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100641454CD1F1E6E428D478A5DC37BACE7" ma:contentTypeVersion="8" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="ef1708d85dca7377bd826ec35b62ca84">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="87ddcb0d-d42d-44d1-b07a-22e3752ef0c9" xmlns:ns4="7798dcc9-908f-468f-826a-c598f412d6fc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="69e720de7d55d3231f99e1910e4c19d8" ns3:_="" ns4:_="">
     <xsd:import namespace="87ddcb0d-d42d-44d1-b07a-22e3752ef0c9"/>
@@ -2011,24 +1473,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{46D3E674-3079-48B5-BFCB-0E49FE180026}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="7798dcc9-908f-468f-826a-c598f412d6fc"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="87ddcb0d-d42d-44d1-b07a-22e3752ef0c9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="87ddcb0d-d42d-44d1-b07a-22e3752ef0c9" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0FE838D2-67DD-483F-BECE-425D67F53E63}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7274836D-657B-48C7-97FD-AD88493854E7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2045,29 +1515,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0FE838D2-67DD-483F-BECE-425D67F53E63}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{46D3E674-3079-48B5-BFCB-0E49FE180026}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="7798dcc9-908f-468f-826a-c598f412d6fc"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="87ddcb0d-d42d-44d1-b07a-22e3752ef0c9"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/src/assets/documents/preguntaObjetivasModerado.xlsx
+++ b/src/assets/documents/preguntaObjetivasModerado.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sullc\Documents\TPI\Workspace\TPIntegrador\Angular\TPI-Front\src\assets\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tpi2\git\TPI-Front\src\assets\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2858088D-66FB-4B8F-B19A-6B322F81985E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3665413-E945-4495-8AB6-63F1DF91A707}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11760" activeTab="3" xr2:uid="{EA040AEE-35B0-4F5B-AEF3-29BB44B005B2}"/>
+    <workbookView xWindow="-28920" yWindow="1440" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{EA040AEE-35B0-4F5B-AEF3-29BB44B005B2}"/>
   </bookViews>
   <sheets>
     <sheet name="categoria" sheetId="1" r:id="rId1"/>
@@ -592,15 +592,15 @@
       <selection activeCell="A3" sqref="A3:XFD21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="29" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -611,7 +611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -636,12 +636,12 @@
       <selection activeCell="A3" sqref="A3:XFD20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="18.140625" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -652,7 +652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -672,18 +672,18 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD23"/>
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="78" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" customWidth="1"/>
-    <col min="5" max="5" width="33.5703125" customWidth="1"/>
+    <col min="2" max="2" width="124" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" customWidth="1"/>
+    <col min="5" max="5" width="33.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -703,7 +703,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -723,7 +723,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -743,7 +743,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -763,7 +763,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -783,7 +783,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -803,7 +803,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -834,19 +834,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8759312-058C-4473-8FFB-A755D6FBD3C0}">
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:XFD117"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="94.5703125" customWidth="1"/>
-    <col min="4" max="4" width="6.140625" customWidth="1"/>
-    <col min="5" max="5" width="5.7109375" customWidth="1"/>
-    <col min="12" max="12" width="49.5703125" customWidth="1"/>
+    <col min="3" max="3" width="94.5546875" customWidth="1"/>
+    <col min="4" max="4" width="6.109375" customWidth="1"/>
+    <col min="5" max="5" width="5.6640625" customWidth="1"/>
+    <col min="12" max="12" width="49.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -866,7 +866,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -888,7 +888,7 @@
       <c r="I2" s="2"/>
       <c r="L2" s="4"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -910,7 +910,7 @@
       <c r="I3" s="2"/>
       <c r="L3" s="4"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -932,7 +932,7 @@
       <c r="I4" s="2"/>
       <c r="L4" s="4"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -954,7 +954,7 @@
       <c r="I5" s="2"/>
       <c r="L5" s="4"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -976,7 +976,7 @@
       <c r="I6" s="2"/>
       <c r="L6" s="4"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -998,7 +998,7 @@
       <c r="I7" s="2"/>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1020,7 +1020,7 @@
       <c r="I8" s="2"/>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1042,7 +1042,7 @@
       <c r="I9" s="2"/>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1064,7 +1064,7 @@
       <c r="I10" s="2"/>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1086,7 +1086,7 @@
       <c r="I11" s="2"/>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1108,7 +1108,7 @@
       <c r="I12" s="2"/>
       <c r="L12" s="2"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1130,7 +1130,7 @@
       <c r="I13" s="2"/>
       <c r="L13" s="2"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1152,7 +1152,7 @@
       <c r="I14" s="2"/>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1173,7 +1173,7 @@
       </c>
       <c r="L15" s="2"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1195,7 +1195,7 @@
       <c r="I16" s="2"/>
       <c r="L16" s="2"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1217,7 +1217,7 @@
       <c r="I17" s="2"/>
       <c r="L17" s="2"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1239,7 +1239,7 @@
       <c r="I18" s="2"/>
       <c r="L18" s="2"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1268,20 +1268,20 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="87ddcb0d-d42d-44d1-b07a-22e3752ef0c9" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="87ddcb0d-d42d-44d1-b07a-22e3752ef0c9" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1474,6 +1474,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0FE838D2-67DD-483F-BECE-425D67F53E63}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{46D3E674-3079-48B5-BFCB-0E49FE180026}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -1486,14 +1494,6 @@
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="87ddcb0d-d42d-44d1-b07a-22e3752ef0c9"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0FE838D2-67DD-483F-BECE-425D67F53E63}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/src/assets/documents/preguntaObjetivasModerado.xlsx
+++ b/src/assets/documents/preguntaObjetivasModerado.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tpi2\git\TPI-Front\src\assets\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sullc\Documents\TPI\Workspace\TPIntegrador\Angular\TPI-Front\src\assets\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3665413-E945-4495-8AB6-63F1DF91A707}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFD0504A-845E-4999-849D-C8F3D326F202}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1440" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{EA040AEE-35B0-4F5B-AEF3-29BB44B005B2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="3" xr2:uid="{EA040AEE-35B0-4F5B-AEF3-29BB44B005B2}"/>
   </bookViews>
   <sheets>
     <sheet name="categoria" sheetId="1" r:id="rId1"/>
@@ -104,9 +104,6 @@
     <t>TEXTO</t>
   </si>
   <si>
-    <t>¿Qué significa el término \"ratio de Sharpe\" y cómo se utiliza en la evaluación de carteras de inversión?</t>
-  </si>
-  <si>
     <t>Test Conocimiento Moderado</t>
   </si>
   <si>
@@ -177,6 +174,9 @@
   </si>
   <si>
     <t>C- La inflación solo afecta a las inversiones en efectivo.</t>
+  </si>
+  <si>
+    <t>¿Qué significa el término "ratio de Sharpe" y cómo se utiliza en la evaluación de carteras de inversión?</t>
   </si>
 </sst>
 </file>
@@ -592,15 +592,15 @@
       <selection activeCell="A3" sqref="A3:XFD21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="29" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -611,12 +611,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
         <v>19</v>
@@ -636,12 +636,12 @@
       <selection activeCell="A3" sqref="A3:XFD20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.109375" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -652,7 +652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -672,18 +672,18 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="124" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" customWidth="1"/>
-    <col min="5" max="5" width="33.5546875" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" customWidth="1"/>
+    <col min="5" max="5" width="33.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -703,12 +703,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
@@ -717,18 +717,18 @@
         <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
         <v>12</v>
@@ -737,18 +737,18 @@
         <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
         <v>13</v>
@@ -757,18 +757,18 @@
         <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
         <v>14</v>
@@ -777,18 +777,18 @@
         <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
         <v>15</v>
@@ -797,18 +797,18 @@
         <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
         <v>16</v>
@@ -817,7 +817,7 @@
         <v>20</v>
       </c>
       <c r="E7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F7" t="s">
         <v>18</v>
@@ -834,19 +834,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8759312-058C-4473-8FFB-A755D6FBD3C0}">
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="94.5546875" customWidth="1"/>
-    <col min="4" max="4" width="6.109375" customWidth="1"/>
-    <col min="5" max="5" width="5.6640625" customWidth="1"/>
-    <col min="12" max="12" width="49.5546875" customWidth="1"/>
+    <col min="3" max="3" width="94.5703125" customWidth="1"/>
+    <col min="4" max="4" width="6.140625" customWidth="1"/>
+    <col min="5" max="5" width="5.7109375" customWidth="1"/>
+    <col min="12" max="12" width="49.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -866,7 +866,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -874,7 +874,7 @@
         <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -883,12 +883,12 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="I2" s="2"/>
       <c r="L2" s="4"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -896,7 +896,7 @@
         <v>17</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D3">
         <v>5</v>
@@ -905,12 +905,12 @@
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="I3" s="2"/>
       <c r="L3" s="4"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -918,7 +918,7 @@
         <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -927,12 +927,12 @@
         <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="I4" s="2"/>
       <c r="L4" s="4"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -940,7 +940,7 @@
         <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -949,12 +949,12 @@
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I5" s="2"/>
       <c r="L5" s="4"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -962,7 +962,7 @@
         <v>17</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -971,12 +971,12 @@
         <v>2</v>
       </c>
       <c r="F6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I6" s="2"/>
       <c r="L6" s="4"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -984,7 +984,7 @@
         <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D7">
         <v>5</v>
@@ -993,12 +993,12 @@
         <v>3</v>
       </c>
       <c r="F7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I7" s="2"/>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1006,7 +1006,7 @@
         <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1015,12 +1015,12 @@
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I8" s="2"/>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1028,7 +1028,7 @@
         <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1037,12 +1037,12 @@
         <v>2</v>
       </c>
       <c r="F9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I9" s="2"/>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1050,7 +1050,7 @@
         <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D10">
         <v>5</v>
@@ -1059,12 +1059,12 @@
         <v>3</v>
       </c>
       <c r="F10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I10" s="2"/>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1072,7 +1072,7 @@
         <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1081,12 +1081,12 @@
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I11" s="2"/>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1094,7 +1094,7 @@
         <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -1103,12 +1103,12 @@
         <v>2</v>
       </c>
       <c r="F12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I12" s="2"/>
       <c r="L12" s="2"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1116,7 +1116,7 @@
         <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D13">
         <v>10</v>
@@ -1125,12 +1125,12 @@
         <v>3</v>
       </c>
       <c r="F13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I13" s="2"/>
       <c r="L13" s="2"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1138,7 +1138,7 @@
         <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -1147,12 +1147,12 @@
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I14" s="2"/>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1160,7 +1160,7 @@
         <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D15">
         <v>10</v>
@@ -1169,11 +1169,11 @@
         <v>2</v>
       </c>
       <c r="F15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L15" s="2"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1181,7 +1181,7 @@
         <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -1190,12 +1190,12 @@
         <v>3</v>
       </c>
       <c r="F16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I16" s="2"/>
       <c r="L16" s="2"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1203,7 +1203,7 @@
         <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -1212,12 +1212,12 @@
         <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I17" s="2"/>
       <c r="L17" s="2"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1225,7 +1225,7 @@
         <v>17</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D18">
         <v>5</v>
@@ -1234,12 +1234,12 @@
         <v>2</v>
       </c>
       <c r="F18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I18" s="2"/>
       <c r="L18" s="2"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1247,7 +1247,7 @@
         <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>3</v>
       </c>
       <c r="F19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I19" s="2"/>
       <c r="L19" s="2"/>
@@ -1268,23 +1268,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="87ddcb0d-d42d-44d1-b07a-22e3752ef0c9" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100641454CD1F1E6E428D478A5DC37BACE7" ma:contentTypeVersion="8" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="ef1708d85dca7377bd826ec35b62ca84">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="87ddcb0d-d42d-44d1-b07a-22e3752ef0c9" xmlns:ns4="7798dcc9-908f-468f-826a-c598f412d6fc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="69e720de7d55d3231f99e1910e4c19d8" ns3:_="" ns4:_="">
     <xsd:import namespace="87ddcb0d-d42d-44d1-b07a-22e3752ef0c9"/>
@@ -1473,10 +1456,38 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="87ddcb0d-d42d-44d1-b07a-22e3752ef0c9" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0FE838D2-67DD-483F-BECE-425D67F53E63}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7274836D-657B-48C7-97FD-AD88493854E7}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="87ddcb0d-d42d-44d1-b07a-22e3752ef0c9"/>
+    <ds:schemaRef ds:uri="7798dcc9-908f-468f-826a-c598f412d6fc"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1499,20 +1510,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7274836D-657B-48C7-97FD-AD88493854E7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0FE838D2-67DD-483F-BECE-425D67F53E63}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="87ddcb0d-d42d-44d1-b07a-22e3752ef0c9"/>
-    <ds:schemaRef ds:uri="7798dcc9-908f-468f-826a-c598f412d6fc"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>